--- a/Ciclo II/Planeación y requerimientos/PD Cambios Definicion y administracion de requerimientos de software.xlsx
+++ b/Ciclo II/Planeación y requerimientos/PD Cambios Definicion y administracion de requerimientos de software.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57304\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Ciclo II/Planeación y requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DED31-C74D-FF44-A843-54446A1C295D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +99,6 @@
     <t>Administrador de Desarrollo</t>
   </si>
   <si>
-    <t>Lider de Equipo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se debe retirar los casos de uso Agregar Punto de venta, Modificar Punto de Venta y Eliminar Punto </t>
   </si>
   <si>
@@ -162,12 +160,15 @@
   </si>
   <si>
     <t>Cambios de Definición y administración de requerimientos de software</t>
+  </si>
+  <si>
+    <t>Líder de Equipo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,18 +526,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -551,9 +540,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -561,9 +571,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,26 +585,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -972,38 +973,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="76.5703125" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1012,28 +1013,28 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -1042,26 +1043,26 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="33"/>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -1073,7 +1074,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -1095,9 +1096,9 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -1109,7 +1110,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -1121,7 +1122,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -1160,14 +1161,14 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1180,10 +1181,10 @@
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
         <v>43214</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1193,53 +1194,53 @@
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+    <row r="22" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1252,10 +1253,10 @@
       <c r="E24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
         <v>43214</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1265,132 +1266,132 @@
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="14">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="15" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="18">
-        <v>6</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
